--- a/Data/Predictions/XGBoost/smote_rating_change_model_2/smote_rating_change_model_2_predictions.xlsx
+++ b/Data/Predictions/XGBoost/smote_rating_change_model_2/smote_rating_change_model_2_predictions.xlsx
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Upgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15815,7 +15815,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>Same As Last Fixed Quarter Date</t>
+          <t>Downgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
